--- a/marksheet.xlsx
+++ b/marksheet.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Database" sheetId="1" r:id="rId1"/>
+    <sheet name="Query" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="312">
   <si>
     <t>student_id</t>
   </si>
@@ -946,13 +947,22 @@
   </si>
   <si>
     <t>Rory DuBuque</t>
+  </si>
+  <si>
+    <t>Find name from student_id (first_name)</t>
+  </si>
+  <si>
+    <t>Find name from student_id (first_name and last_name)</t>
+  </si>
+  <si>
+    <t>Solve the following problems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,8 +976,30 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +1009,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -989,15 +1038,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,8 +1344,8 @@
   </sheetPr>
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,6 +1358,9 @@
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="16" max="16" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5676,5 +5744,94 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="4" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>19359</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="10" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/marksheet.xlsx
+++ b/marksheet.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
-    <sheet name="Query" sheetId="2" r:id="rId2"/>
+    <sheet name="Second List" sheetId="3" r:id="rId2"/>
+    <sheet name="Query" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="316">
   <si>
     <t>student_id</t>
   </si>
@@ -956,13 +957,25 @@
   </si>
   <si>
     <t>Solve the following problems</t>
+  </si>
+  <si>
+    <t>Find name from student_id  and fill the following fields</t>
+  </si>
+  <si>
+    <t>Find name from student_id  and fill the field (Multiple Student, Single field)</t>
+  </si>
+  <si>
+    <t>Find name from student_id  and fill the fields (Multiple Student, All fields)</t>
+  </si>
+  <si>
+    <t>Some names are missing in second lit: create a column in database and show it is available or not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,8 +1011,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,6 +1079,17 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1038,19 +1100,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1058,10 +1118,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1344,8 +1419,8 @@
   </sheetPr>
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:T14"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,88 +5825,4486 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:K13"/>
+  <dimension ref="A4:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F16"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>84907</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2">
+        <v>75</v>
+      </c>
+      <c r="I5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>29760</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>76882</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>10498</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2">
+        <v>68</v>
+      </c>
+      <c r="F8" s="2">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
+        <v>69</v>
+      </c>
+      <c r="I8" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>96713</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>92200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>93376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2">
+        <v>87</v>
+      </c>
+      <c r="F11" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2">
+        <v>96</v>
+      </c>
+      <c r="H11" s="2">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>67209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2">
+        <v>77</v>
+      </c>
+      <c r="G12" s="2">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2">
+        <v>94</v>
+      </c>
+      <c r="I12" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>98560</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2">
+        <v>93</v>
+      </c>
+      <c r="F13" s="2">
+        <v>90</v>
+      </c>
+      <c r="G13" s="2">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>31620</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>37042</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>99</v>
+      </c>
+      <c r="G15" s="2">
+        <v>91</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>84486</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2">
+        <v>41</v>
+      </c>
+      <c r="G16" s="2">
+        <v>79</v>
+      </c>
+      <c r="H16" s="2">
+        <v>90</v>
+      </c>
+      <c r="I16" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>84980</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2">
+        <v>58</v>
+      </c>
+      <c r="G17" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" s="2">
+        <v>63</v>
+      </c>
+      <c r="I17" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16557</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44</v>
+      </c>
+      <c r="G18" s="2">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>67629</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2">
+        <v>96</v>
+      </c>
+      <c r="F19" s="2">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2">
+        <v>56</v>
+      </c>
+      <c r="I19" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>24394</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2">
+        <v>71</v>
+      </c>
+      <c r="G20" s="2">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>66543</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2">
+        <v>90</v>
+      </c>
+      <c r="G21" s="2">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2">
+        <v>68</v>
+      </c>
+      <c r="I21" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>27104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2">
+        <v>71</v>
+      </c>
+      <c r="F22" s="2">
+        <v>60</v>
+      </c>
+      <c r="G22" s="2">
+        <v>26</v>
+      </c>
+      <c r="H22" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>94425</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2">
+        <v>65</v>
+      </c>
+      <c r="G23" s="2">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2">
+        <v>53</v>
+      </c>
+      <c r="I23" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>98756</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2">
+        <v>65</v>
+      </c>
+      <c r="G24" s="2">
+        <v>52</v>
+      </c>
+      <c r="H24" s="2">
+        <v>67</v>
+      </c>
+      <c r="I24" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>54835</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2">
+        <v>83</v>
+      </c>
+      <c r="F25" s="2">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2">
+        <v>83</v>
+      </c>
+      <c r="H25" s="2">
+        <v>60</v>
+      </c>
+      <c r="I25" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>50894</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2">
+        <v>89</v>
+      </c>
+      <c r="G26" s="2">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>35975</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2">
+        <v>65</v>
+      </c>
+      <c r="H27" s="2">
+        <v>83</v>
+      </c>
+      <c r="I27" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>50131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2">
+        <v>49</v>
+      </c>
+      <c r="F28" s="2">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2">
+        <v>54</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>62416</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45</v>
+      </c>
+      <c r="E29" s="2">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2">
+        <v>100</v>
+      </c>
+      <c r="H29" s="2">
+        <v>81</v>
+      </c>
+      <c r="I29" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>86603</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2">
+        <v>28</v>
+      </c>
+      <c r="F30" s="2">
+        <v>29</v>
+      </c>
+      <c r="G30" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44</v>
+      </c>
+      <c r="I30" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>19359</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2">
+        <v>92</v>
+      </c>
+      <c r="E31" s="2">
+        <v>32</v>
+      </c>
+      <c r="F31" s="2">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2">
+        <v>99</v>
+      </c>
+      <c r="H31" s="2">
+        <v>39</v>
+      </c>
+      <c r="I31" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>39463</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2">
+        <v>76</v>
+      </c>
+      <c r="F32" s="2">
+        <v>95</v>
+      </c>
+      <c r="G32" s="2">
+        <v>49</v>
+      </c>
+      <c r="H32" s="2">
+        <v>83</v>
+      </c>
+      <c r="I32" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>73412</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45</v>
+      </c>
+      <c r="E33" s="2">
+        <v>92</v>
+      </c>
+      <c r="F33" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" s="2">
+        <v>58</v>
+      </c>
+      <c r="H33" s="2">
+        <v>52</v>
+      </c>
+      <c r="I33" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>35918</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="2">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2">
+        <v>54</v>
+      </c>
+      <c r="F34" s="2">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45</v>
+      </c>
+      <c r="H34" s="2">
+        <v>62</v>
+      </c>
+      <c r="I34" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>46034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2">
+        <v>76</v>
+      </c>
+      <c r="F35" s="2">
+        <v>89</v>
+      </c>
+      <c r="G35" s="2">
+        <v>94</v>
+      </c>
+      <c r="H35" s="2">
+        <v>67</v>
+      </c>
+      <c r="I35" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>98276</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="2">
+        <v>25</v>
+      </c>
+      <c r="E36" s="2">
+        <v>87</v>
+      </c>
+      <c r="F36" s="2">
+        <v>56</v>
+      </c>
+      <c r="G36" s="2">
+        <v>86</v>
+      </c>
+      <c r="H36" s="2">
+        <v>55</v>
+      </c>
+      <c r="I36" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>30540</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="2">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2">
+        <v>31</v>
+      </c>
+      <c r="F37" s="2">
+        <v>63</v>
+      </c>
+      <c r="G37" s="2">
+        <v>21</v>
+      </c>
+      <c r="H37" s="2">
+        <v>57</v>
+      </c>
+      <c r="I37" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>69104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45</v>
+      </c>
+      <c r="E38" s="2">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2">
+        <v>48</v>
+      </c>
+      <c r="G38" s="2">
+        <v>21</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44</v>
+      </c>
+      <c r="I38" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>94561</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="2">
+        <v>59</v>
+      </c>
+      <c r="E39" s="2">
+        <v>57</v>
+      </c>
+      <c r="F39" s="2">
+        <v>74</v>
+      </c>
+      <c r="G39" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" s="2">
+        <v>60</v>
+      </c>
+      <c r="I39" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>23861</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2">
+        <v>83</v>
+      </c>
+      <c r="F40" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" s="2">
+        <v>56</v>
+      </c>
+      <c r="H40" s="2">
+        <v>24</v>
+      </c>
+      <c r="I40" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>42410</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="2">
+        <v>31</v>
+      </c>
+      <c r="E41" s="2">
+        <v>96</v>
+      </c>
+      <c r="F41" s="2">
+        <v>50</v>
+      </c>
+      <c r="G41" s="2">
+        <v>72</v>
+      </c>
+      <c r="H41" s="2">
+        <v>27</v>
+      </c>
+      <c r="I41" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>16833</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2">
+        <v>30</v>
+      </c>
+      <c r="E42" s="2">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2">
+        <v>56</v>
+      </c>
+      <c r="G42" s="2">
+        <v>58</v>
+      </c>
+      <c r="H42" s="2">
+        <v>70</v>
+      </c>
+      <c r="I42" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>51577</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2">
+        <v>88</v>
+      </c>
+      <c r="F43" s="2">
+        <v>85</v>
+      </c>
+      <c r="G43" s="2">
+        <v>95</v>
+      </c>
+      <c r="H43" s="2">
+        <v>48</v>
+      </c>
+      <c r="I43" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>35178</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2">
+        <v>100</v>
+      </c>
+      <c r="F44" s="2">
+        <v>49</v>
+      </c>
+      <c r="G44" s="2">
+        <v>54</v>
+      </c>
+      <c r="H44" s="2">
+        <v>21</v>
+      </c>
+      <c r="I44" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>13883</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="2">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2">
+        <v>21</v>
+      </c>
+      <c r="F45" s="2">
+        <v>53</v>
+      </c>
+      <c r="G45" s="2">
+        <v>28</v>
+      </c>
+      <c r="H45" s="2">
+        <v>59</v>
+      </c>
+      <c r="I45" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>64854</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2">
+        <v>92</v>
+      </c>
+      <c r="F46" s="2">
+        <v>22</v>
+      </c>
+      <c r="G46" s="2">
+        <v>91</v>
+      </c>
+      <c r="H46" s="2">
+        <v>48</v>
+      </c>
+      <c r="I46" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>55334</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="2">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" s="2">
+        <v>66</v>
+      </c>
+      <c r="G47" s="2">
+        <v>82</v>
+      </c>
+      <c r="H47" s="2">
+        <v>90</v>
+      </c>
+      <c r="I47" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>63628</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="2">
+        <v>42</v>
+      </c>
+      <c r="E48" s="2">
+        <v>90</v>
+      </c>
+      <c r="F48" s="2">
+        <v>58</v>
+      </c>
+      <c r="G48" s="2">
+        <v>82</v>
+      </c>
+      <c r="H48" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>62506</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="2">
+        <v>41</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44</v>
+      </c>
+      <c r="F49" s="2">
+        <v>99</v>
+      </c>
+      <c r="G49" s="2">
+        <v>25</v>
+      </c>
+      <c r="H49" s="2">
+        <v>95</v>
+      </c>
+      <c r="I49" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>29850</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="2">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2">
+        <v>97</v>
+      </c>
+      <c r="F50" s="2">
+        <v>48</v>
+      </c>
+      <c r="G50" s="2">
+        <v>54</v>
+      </c>
+      <c r="H50" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>21324</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="2">
+        <v>73</v>
+      </c>
+      <c r="E51" s="2">
+        <v>50</v>
+      </c>
+      <c r="F51" s="2">
+        <v>35</v>
+      </c>
+      <c r="G51" s="2">
+        <v>58</v>
+      </c>
+      <c r="H51" s="2">
+        <v>82</v>
+      </c>
+      <c r="I51" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>94895</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="2">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2">
+        <v>49</v>
+      </c>
+      <c r="G52" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>25774</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2">
+        <v>86</v>
+      </c>
+      <c r="F53" s="2">
+        <v>69</v>
+      </c>
+      <c r="G53" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" s="2">
+        <v>49</v>
+      </c>
+      <c r="I53" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>41508</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="2">
+        <v>61</v>
+      </c>
+      <c r="E54" s="2">
+        <v>93</v>
+      </c>
+      <c r="F54" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" s="2">
+        <v>51</v>
+      </c>
+      <c r="H54" s="2">
+        <v>34</v>
+      </c>
+      <c r="I54" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>70445</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="2">
+        <v>70</v>
+      </c>
+      <c r="E55" s="2">
+        <v>32</v>
+      </c>
+      <c r="F55" s="2">
+        <v>32</v>
+      </c>
+      <c r="G55" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" s="2">
+        <v>21</v>
+      </c>
+      <c r="I55" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>28823</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="2">
+        <v>38</v>
+      </c>
+      <c r="E56" s="2">
+        <v>28</v>
+      </c>
+      <c r="F56" s="2">
+        <v>95</v>
+      </c>
+      <c r="G56" s="2">
+        <v>99</v>
+      </c>
+      <c r="H56" s="2">
+        <v>69</v>
+      </c>
+      <c r="I56" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>76428</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="2">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2">
+        <v>81</v>
+      </c>
+      <c r="F57" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" s="2">
+        <v>93</v>
+      </c>
+      <c r="H57" s="2">
+        <v>48</v>
+      </c>
+      <c r="I57" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>28913</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="2">
+        <v>37</v>
+      </c>
+      <c r="E58" s="2">
+        <v>85</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45</v>
+      </c>
+      <c r="G58" s="2">
+        <v>56</v>
+      </c>
+      <c r="H58" s="2">
+        <v>61</v>
+      </c>
+      <c r="I58" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>93299</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="2">
+        <v>47</v>
+      </c>
+      <c r="E59" s="2">
+        <v>69</v>
+      </c>
+      <c r="F59" s="2">
+        <v>56</v>
+      </c>
+      <c r="G59" s="2">
+        <v>70</v>
+      </c>
+      <c r="H59" s="2">
+        <v>42</v>
+      </c>
+      <c r="I59" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>85724</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="2">
+        <v>42</v>
+      </c>
+      <c r="E60" s="2">
+        <v>21</v>
+      </c>
+      <c r="F60" s="2">
+        <v>28</v>
+      </c>
+      <c r="G60" s="2">
+        <v>95</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44</v>
+      </c>
+      <c r="I60" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>18098</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="2">
+        <v>61</v>
+      </c>
+      <c r="E61" s="2">
+        <v>58</v>
+      </c>
+      <c r="F61" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" s="2">
+        <v>37</v>
+      </c>
+      <c r="H61" s="2">
+        <v>66</v>
+      </c>
+      <c r="I61" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>19728</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="2">
+        <v>84</v>
+      </c>
+      <c r="E62" s="2">
+        <v>97</v>
+      </c>
+      <c r="F62" s="2">
+        <v>54</v>
+      </c>
+      <c r="G62" s="2">
+        <v>54</v>
+      </c>
+      <c r="H62" s="2">
+        <v>37</v>
+      </c>
+      <c r="I62" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>61105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="2">
+        <v>22</v>
+      </c>
+      <c r="E63" s="2">
+        <v>24</v>
+      </c>
+      <c r="F63" s="2">
+        <v>86</v>
+      </c>
+      <c r="G63" s="2">
+        <v>20</v>
+      </c>
+      <c r="H63" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>38009</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="2">
+        <v>88</v>
+      </c>
+      <c r="E64" s="2">
+        <v>63</v>
+      </c>
+      <c r="F64" s="2">
+        <v>24</v>
+      </c>
+      <c r="G64" s="2">
+        <v>44</v>
+      </c>
+      <c r="H64" s="2">
+        <v>92</v>
+      </c>
+      <c r="I64" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>35570</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="2">
+        <v>23</v>
+      </c>
+      <c r="E65" s="2">
+        <v>54</v>
+      </c>
+      <c r="F65" s="2">
+        <v>82</v>
+      </c>
+      <c r="G65" s="2">
+        <v>35</v>
+      </c>
+      <c r="H65" s="2">
+        <v>23</v>
+      </c>
+      <c r="I65" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>96765</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
+      <c r="F66" s="2">
+        <v>58</v>
+      </c>
+      <c r="G66" s="2">
+        <v>94</v>
+      </c>
+      <c r="H66" s="2">
+        <v>96</v>
+      </c>
+      <c r="I66" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>90748</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="2">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>24</v>
+      </c>
+      <c r="F67" s="2">
+        <v>58</v>
+      </c>
+      <c r="G67" s="2">
+        <v>54</v>
+      </c>
+      <c r="H67" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>82430</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="2">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2">
+        <v>100</v>
+      </c>
+      <c r="F68" s="2">
+        <v>27</v>
+      </c>
+      <c r="G68" s="2">
+        <v>84</v>
+      </c>
+      <c r="H68" s="2">
+        <v>68</v>
+      </c>
+      <c r="I68" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="2">
+        <v>73</v>
+      </c>
+      <c r="E69" s="2">
+        <v>50</v>
+      </c>
+      <c r="F69" s="2">
+        <v>95</v>
+      </c>
+      <c r="G69" s="2">
+        <v>29</v>
+      </c>
+      <c r="H69" s="2">
+        <v>98</v>
+      </c>
+      <c r="I69" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>20859</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="2">
+        <v>97</v>
+      </c>
+      <c r="E70" s="2">
+        <v>37</v>
+      </c>
+      <c r="F70" s="2">
+        <v>61</v>
+      </c>
+      <c r="G70" s="2">
+        <v>29</v>
+      </c>
+      <c r="H70" s="2">
+        <v>69</v>
+      </c>
+      <c r="I70" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>17406</v>
+      </c>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="2">
+        <v>58</v>
+      </c>
+      <c r="E71" s="2">
+        <v>84</v>
+      </c>
+      <c r="F71" s="2">
+        <v>90</v>
+      </c>
+      <c r="G71" s="2">
+        <v>57</v>
+      </c>
+      <c r="H71" s="2">
+        <v>33</v>
+      </c>
+      <c r="I71" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>60952</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="2">
+        <v>93</v>
+      </c>
+      <c r="E72" s="2">
+        <v>32</v>
+      </c>
+      <c r="F72" s="2">
+        <v>29</v>
+      </c>
+      <c r="G72" s="2">
+        <v>46</v>
+      </c>
+      <c r="H72" s="2">
+        <v>54</v>
+      </c>
+      <c r="I72" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>83138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="2">
+        <v>31</v>
+      </c>
+      <c r="E73" s="2">
+        <v>53</v>
+      </c>
+      <c r="F73" s="2">
+        <v>59</v>
+      </c>
+      <c r="G73" s="2">
+        <v>49</v>
+      </c>
+      <c r="H73" s="2">
+        <v>100</v>
+      </c>
+      <c r="I73" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>14821</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="2">
+        <v>49</v>
+      </c>
+      <c r="E74" s="2">
+        <v>21</v>
+      </c>
+      <c r="F74" s="2">
+        <v>59</v>
+      </c>
+      <c r="G74" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" s="2">
+        <v>68</v>
+      </c>
+      <c r="I74" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>17960</v>
+      </c>
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="2">
+        <v>57</v>
+      </c>
+      <c r="E75" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" s="2">
+        <v>50</v>
+      </c>
+      <c r="H75" s="2">
+        <v>20</v>
+      </c>
+      <c r="I75" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>83506</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="2">
+        <v>47</v>
+      </c>
+      <c r="E76" s="2">
+        <v>22</v>
+      </c>
+      <c r="F76" s="2">
+        <v>61</v>
+      </c>
+      <c r="G76" s="2">
+        <v>35</v>
+      </c>
+      <c r="H76" s="2">
+        <v>36</v>
+      </c>
+      <c r="I76" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45963</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="2">
+        <v>80</v>
+      </c>
+      <c r="E77" s="2">
+        <v>36</v>
+      </c>
+      <c r="F77" s="2">
+        <v>71</v>
+      </c>
+      <c r="G77" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" s="2">
+        <v>32</v>
+      </c>
+      <c r="I77" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>61939</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="2">
+        <v>59</v>
+      </c>
+      <c r="E78" s="2">
+        <v>20</v>
+      </c>
+      <c r="F78" s="2">
+        <v>74</v>
+      </c>
+      <c r="G78" s="2">
+        <v>54</v>
+      </c>
+      <c r="H78" s="2">
+        <v>41</v>
+      </c>
+      <c r="I78" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>59799</v>
+      </c>
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="2">
+        <v>35</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" s="2">
+        <v>36</v>
+      </c>
+      <c r="G79" s="2">
+        <v>29</v>
+      </c>
+      <c r="H79" s="2">
+        <v>90</v>
+      </c>
+      <c r="I79" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>24008</v>
+      </c>
+      <c r="B80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="2">
+        <v>56</v>
+      </c>
+      <c r="E80" s="2">
+        <v>93</v>
+      </c>
+      <c r="F80" s="2">
+        <v>62</v>
+      </c>
+      <c r="G80" s="2">
+        <v>49</v>
+      </c>
+      <c r="H80" s="2">
+        <v>83</v>
+      </c>
+      <c r="I80" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>31098</v>
+      </c>
+      <c r="B81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="2">
+        <v>59</v>
+      </c>
+      <c r="E81" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" s="2">
+        <v>68</v>
+      </c>
+      <c r="G81" s="2">
+        <v>43</v>
+      </c>
+      <c r="H81" s="2">
+        <v>24</v>
+      </c>
+      <c r="I81" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>52323</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44</v>
+      </c>
+      <c r="E82" s="2">
+        <v>21</v>
+      </c>
+      <c r="F82" s="2">
+        <v>23</v>
+      </c>
+      <c r="G82" s="2">
+        <v>87</v>
+      </c>
+      <c r="H82" s="2">
+        <v>57</v>
+      </c>
+      <c r="I82" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>47215</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="2">
+        <v>90</v>
+      </c>
+      <c r="E83" s="2">
+        <v>97</v>
+      </c>
+      <c r="F83" s="2">
+        <v>28</v>
+      </c>
+      <c r="G83" s="2">
+        <v>91</v>
+      </c>
+      <c r="H83" s="2">
+        <v>42</v>
+      </c>
+      <c r="I83" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>93929</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2">
+        <v>33</v>
+      </c>
+      <c r="G84" s="2">
+        <v>55</v>
+      </c>
+      <c r="H84" s="2">
+        <v>43</v>
+      </c>
+      <c r="I84" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>31116</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="2">
+        <v>89</v>
+      </c>
+      <c r="E85" s="2">
+        <v>26</v>
+      </c>
+      <c r="F85" s="2">
+        <v>58</v>
+      </c>
+      <c r="G85" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" s="2">
+        <v>80</v>
+      </c>
+      <c r="I85" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>68056</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="2">
+        <v>36</v>
+      </c>
+      <c r="E86" s="2">
+        <v>43</v>
+      </c>
+      <c r="F86" s="2">
+        <v>56</v>
+      </c>
+      <c r="G86" s="2">
+        <v>67</v>
+      </c>
+      <c r="H86" s="2">
+        <v>32</v>
+      </c>
+      <c r="I86" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>15003</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="2">
+        <v>96</v>
+      </c>
+      <c r="E87" s="2">
+        <v>63</v>
+      </c>
+      <c r="F87" s="2">
+        <v>97</v>
+      </c>
+      <c r="G87" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" s="2">
+        <v>31</v>
+      </c>
+      <c r="I87" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>41230</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="2">
+        <v>83</v>
+      </c>
+      <c r="E88" s="2">
+        <v>65</v>
+      </c>
+      <c r="F88" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" s="2">
+        <v>38</v>
+      </c>
+      <c r="H88" s="2">
+        <v>64</v>
+      </c>
+      <c r="I88" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>51419</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="2">
+        <v>68</v>
+      </c>
+      <c r="E89" s="2">
+        <v>99</v>
+      </c>
+      <c r="F89" s="2">
+        <v>51</v>
+      </c>
+      <c r="G89" s="2">
+        <v>47</v>
+      </c>
+      <c r="H89" s="2">
+        <v>22</v>
+      </c>
+      <c r="I89" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>28666</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="2">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2">
+        <v>80</v>
+      </c>
+      <c r="F90" s="2">
+        <v>31</v>
+      </c>
+      <c r="G90" s="2">
+        <v>39</v>
+      </c>
+      <c r="H90" s="2">
+        <v>64</v>
+      </c>
+      <c r="I90" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>63365</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="2">
+        <v>71</v>
+      </c>
+      <c r="E91" s="2">
+        <v>80</v>
+      </c>
+      <c r="F91" s="2">
+        <v>58</v>
+      </c>
+      <c r="G91" s="2">
+        <v>87</v>
+      </c>
+      <c r="H91" s="2">
+        <v>31</v>
+      </c>
+      <c r="I91" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>84018</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="2">
+        <v>25</v>
+      </c>
+      <c r="E92" s="2">
+        <v>49</v>
+      </c>
+      <c r="F92" s="2">
+        <v>62</v>
+      </c>
+      <c r="G92" s="2">
+        <v>94</v>
+      </c>
+      <c r="H92" s="2">
+        <v>81</v>
+      </c>
+      <c r="I92" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>17110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="2">
+        <v>50</v>
+      </c>
+      <c r="E93" s="2">
+        <v>53</v>
+      </c>
+      <c r="F93" s="2">
+        <v>25</v>
+      </c>
+      <c r="G93" s="2">
+        <v>56</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43</v>
+      </c>
+      <c r="I93" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>88955</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="2">
+        <v>67</v>
+      </c>
+      <c r="E94" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" s="2">
+        <v>31</v>
+      </c>
+      <c r="G94" s="2">
+        <v>91</v>
+      </c>
+      <c r="H94" s="2">
+        <v>85</v>
+      </c>
+      <c r="I94" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>88388</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="2">
+        <v>23</v>
+      </c>
+      <c r="E95" s="2">
+        <v>62</v>
+      </c>
+      <c r="F95" s="2">
+        <v>41</v>
+      </c>
+      <c r="G95" s="2">
+        <v>89</v>
+      </c>
+      <c r="H95" s="2">
+        <v>82</v>
+      </c>
+      <c r="I95" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>63533</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96" s="2">
+        <v>68</v>
+      </c>
+      <c r="E96" s="2">
+        <v>67</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43</v>
+      </c>
+      <c r="G96" s="2">
+        <v>34</v>
+      </c>
+      <c r="H96" s="2">
+        <v>84</v>
+      </c>
+      <c r="I96" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>18593</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="2">
+        <v>92</v>
+      </c>
+      <c r="E97" s="2">
+        <v>39</v>
+      </c>
+      <c r="F97" s="2">
+        <v>61</v>
+      </c>
+      <c r="G97" s="2">
+        <v>85</v>
+      </c>
+      <c r="H97" s="2">
+        <v>95</v>
+      </c>
+      <c r="I97" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>40860</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="2">
+        <v>68</v>
+      </c>
+      <c r="E98" s="2">
+        <v>47</v>
+      </c>
+      <c r="F98" s="2">
+        <v>89</v>
+      </c>
+      <c r="G98" s="2">
+        <v>83</v>
+      </c>
+      <c r="H98" s="2">
+        <v>64</v>
+      </c>
+      <c r="I98" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>46147</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="2">
+        <v>28</v>
+      </c>
+      <c r="E99" s="2">
+        <v>27</v>
+      </c>
+      <c r="F99" s="2">
+        <v>64</v>
+      </c>
+      <c r="G99" s="2">
+        <v>100</v>
+      </c>
+      <c r="H99" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>46588</v>
+      </c>
+      <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="2">
+        <v>47</v>
+      </c>
+      <c r="E100" s="2">
+        <v>24</v>
+      </c>
+      <c r="F100" s="2">
+        <v>67</v>
+      </c>
+      <c r="G100" s="2">
+        <v>72</v>
+      </c>
+      <c r="H100" s="2">
+        <v>90</v>
+      </c>
+      <c r="I100" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>56230</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>212</v>
+      </c>
+      <c r="D101" s="2">
+        <v>88</v>
+      </c>
+      <c r="E101" s="2">
+        <v>87</v>
+      </c>
+      <c r="F101" s="2">
+        <v>33</v>
+      </c>
+      <c r="G101" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" s="2">
+        <v>95</v>
+      </c>
+      <c r="I101" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>63846</v>
+      </c>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" s="2">
+        <v>91</v>
+      </c>
+      <c r="E102" s="2">
+        <v>47</v>
+      </c>
+      <c r="F102" s="2">
+        <v>63</v>
+      </c>
+      <c r="G102" s="2">
+        <v>61</v>
+      </c>
+      <c r="H102" s="2">
+        <v>95</v>
+      </c>
+      <c r="I102" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>95615</v>
+      </c>
+      <c r="B103" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103" s="2">
+        <v>92</v>
+      </c>
+      <c r="E103" s="2">
+        <v>87</v>
+      </c>
+      <c r="F103" s="2">
+        <v>52</v>
+      </c>
+      <c r="G103" s="2">
+        <v>54</v>
+      </c>
+      <c r="H103" s="2">
+        <v>45</v>
+      </c>
+      <c r="I103" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>17663</v>
+      </c>
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="2">
+        <v>51</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44</v>
+      </c>
+      <c r="F104" s="2">
+        <v>28</v>
+      </c>
+      <c r="G104" s="2">
+        <v>54</v>
+      </c>
+      <c r="H104" s="2">
+        <v>51</v>
+      </c>
+      <c r="I104" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>76724</v>
+      </c>
+      <c r="B105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="2">
+        <v>58</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44</v>
+      </c>
+      <c r="F105" s="2">
+        <v>96</v>
+      </c>
+      <c r="G105" s="2">
+        <v>54</v>
+      </c>
+      <c r="H105" s="2">
+        <v>22</v>
+      </c>
+      <c r="I105" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>17562</v>
+      </c>
+      <c r="B106" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="2">
+        <v>97</v>
+      </c>
+      <c r="E106" s="2">
+        <v>64</v>
+      </c>
+      <c r="F106" s="2">
+        <v>75</v>
+      </c>
+      <c r="G106" s="2">
+        <v>91</v>
+      </c>
+      <c r="H106" s="2">
+        <v>92</v>
+      </c>
+      <c r="I106" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="2">
+        <v>22</v>
+      </c>
+      <c r="E107" s="2">
+        <v>83</v>
+      </c>
+      <c r="F107" s="2">
+        <v>59</v>
+      </c>
+      <c r="G107" s="2">
+        <v>31</v>
+      </c>
+      <c r="H107" s="2">
+        <v>36</v>
+      </c>
+      <c r="I107" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>61848</v>
+      </c>
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="2">
+        <v>25</v>
+      </c>
+      <c r="E108" s="2">
+        <v>90</v>
+      </c>
+      <c r="F108" s="2">
+        <v>59</v>
+      </c>
+      <c r="G108" s="2">
+        <v>29</v>
+      </c>
+      <c r="H108" s="2">
+        <v>87</v>
+      </c>
+      <c r="I108" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>68984</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="2">
+        <v>93</v>
+      </c>
+      <c r="E109" s="2">
+        <v>27</v>
+      </c>
+      <c r="F109" s="2">
+        <v>21</v>
+      </c>
+      <c r="G109" s="2">
+        <v>59</v>
+      </c>
+      <c r="H109" s="2">
+        <v>87</v>
+      </c>
+      <c r="I109" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>95257</v>
+      </c>
+      <c r="B110" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="2">
+        <v>35</v>
+      </c>
+      <c r="E110" s="2">
+        <v>37</v>
+      </c>
+      <c r="F110" s="2">
+        <v>86</v>
+      </c>
+      <c r="G110" s="2">
+        <v>54</v>
+      </c>
+      <c r="H110" s="2">
+        <v>41</v>
+      </c>
+      <c r="I110" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>90389</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" s="2">
+        <v>35</v>
+      </c>
+      <c r="E111" s="2">
+        <v>25</v>
+      </c>
+      <c r="F111" s="2">
+        <v>25</v>
+      </c>
+      <c r="G111" s="2">
+        <v>27</v>
+      </c>
+      <c r="H111" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>66152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="2">
+        <v>87</v>
+      </c>
+      <c r="E112" s="2">
+        <v>41</v>
+      </c>
+      <c r="F112" s="2">
+        <v>91</v>
+      </c>
+      <c r="G112" s="2">
+        <v>25</v>
+      </c>
+      <c r="H112" s="2">
+        <v>55</v>
+      </c>
+      <c r="I112" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>28373</v>
+      </c>
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="2">
+        <v>83</v>
+      </c>
+      <c r="E113" s="2">
+        <v>77</v>
+      </c>
+      <c r="F113" s="2">
+        <v>32</v>
+      </c>
+      <c r="G113" s="2">
+        <v>49</v>
+      </c>
+      <c r="H113" s="2">
+        <v>34</v>
+      </c>
+      <c r="I113" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>58100</v>
+      </c>
+      <c r="B114" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" t="s">
+        <v>240</v>
+      </c>
+      <c r="D114" s="2">
+        <v>44</v>
+      </c>
+      <c r="E114" s="2">
+        <v>73</v>
+      </c>
+      <c r="F114" s="2">
+        <v>69</v>
+      </c>
+      <c r="G114" s="2">
+        <v>26</v>
+      </c>
+      <c r="H114" s="2">
+        <v>76</v>
+      </c>
+      <c r="I114" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>62329</v>
+      </c>
+      <c r="B115" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="2">
+        <v>62</v>
+      </c>
+      <c r="E115" s="2">
+        <v>47</v>
+      </c>
+      <c r="F115" s="2">
+        <v>21</v>
+      </c>
+      <c r="G115" s="2">
+        <v>81</v>
+      </c>
+      <c r="H115" s="2">
+        <v>43</v>
+      </c>
+      <c r="I115" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>21787</v>
+      </c>
+      <c r="B116" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" t="s">
+        <v>244</v>
+      </c>
+      <c r="D116" s="2">
+        <v>43</v>
+      </c>
+      <c r="E116" s="2">
+        <v>97</v>
+      </c>
+      <c r="F116" s="2">
+        <v>92</v>
+      </c>
+      <c r="G116" s="2">
+        <v>88</v>
+      </c>
+      <c r="H116" s="2">
+        <v>43</v>
+      </c>
+      <c r="I116" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>65193</v>
+      </c>
+      <c r="B117" t="s">
+        <v>245</v>
+      </c>
+      <c r="C117" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117" s="2">
+        <v>88</v>
+      </c>
+      <c r="E117" s="2">
+        <v>91</v>
+      </c>
+      <c r="F117" s="2">
+        <v>53</v>
+      </c>
+      <c r="G117" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" s="2">
+        <v>67</v>
+      </c>
+      <c r="I117" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>70260</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" t="s">
+        <v>248</v>
+      </c>
+      <c r="D118" s="2">
+        <v>24</v>
+      </c>
+      <c r="E118" s="2">
+        <v>21</v>
+      </c>
+      <c r="F118" s="2">
+        <v>94</v>
+      </c>
+      <c r="G118" s="2">
+        <v>77</v>
+      </c>
+      <c r="H118" s="2">
+        <v>39</v>
+      </c>
+      <c r="I118" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>52974</v>
+      </c>
+      <c r="B119" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" s="2">
+        <v>25</v>
+      </c>
+      <c r="E119" s="2">
+        <v>94</v>
+      </c>
+      <c r="F119" s="2">
+        <v>48</v>
+      </c>
+      <c r="G119" s="2">
+        <v>84</v>
+      </c>
+      <c r="H119" s="2">
+        <v>31</v>
+      </c>
+      <c r="I119" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>64323</v>
+      </c>
+      <c r="B120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" s="2">
+        <v>29</v>
+      </c>
+      <c r="E120" s="2">
+        <v>66</v>
+      </c>
+      <c r="F120" s="2">
+        <v>24</v>
+      </c>
+      <c r="G120" s="2">
+        <v>87</v>
+      </c>
+      <c r="H120" s="2">
+        <v>85</v>
+      </c>
+      <c r="I120" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>24555</v>
+      </c>
+      <c r="B121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
+        <v>254</v>
+      </c>
+      <c r="D121" s="2">
+        <v>71</v>
+      </c>
+      <c r="E121" s="2">
+        <v>35</v>
+      </c>
+      <c r="F121" s="2">
+        <v>32</v>
+      </c>
+      <c r="G121" s="2">
+        <v>91</v>
+      </c>
+      <c r="H121" s="2">
+        <v>45</v>
+      </c>
+      <c r="I121" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>56536</v>
+      </c>
+      <c r="B122" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" t="s">
+        <v>256</v>
+      </c>
+      <c r="D122" s="2">
+        <v>98</v>
+      </c>
+      <c r="E122" s="2">
+        <v>76</v>
+      </c>
+      <c r="F122" s="2">
+        <v>66</v>
+      </c>
+      <c r="G122" s="2">
+        <v>25</v>
+      </c>
+      <c r="H122" s="2">
+        <v>48</v>
+      </c>
+      <c r="I122" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>76562</v>
+      </c>
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="2">
+        <v>34</v>
+      </c>
+      <c r="E123" s="2">
+        <v>68</v>
+      </c>
+      <c r="F123" s="2">
+        <v>84</v>
+      </c>
+      <c r="G123" s="2">
+        <v>38</v>
+      </c>
+      <c r="H123" s="2">
+        <v>77</v>
+      </c>
+      <c r="I123" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>86930</v>
+      </c>
+      <c r="B124" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" s="2">
+        <v>29</v>
+      </c>
+      <c r="E124" s="2">
+        <v>94</v>
+      </c>
+      <c r="F124" s="2">
+        <v>68</v>
+      </c>
+      <c r="G124" s="2">
+        <v>64</v>
+      </c>
+      <c r="H124" s="2">
+        <v>86</v>
+      </c>
+      <c r="I124" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>86322</v>
+      </c>
+      <c r="B125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" s="2">
+        <v>74</v>
+      </c>
+      <c r="E125" s="2">
+        <v>84</v>
+      </c>
+      <c r="F125" s="2">
+        <v>36</v>
+      </c>
+      <c r="G125" s="2">
+        <v>98</v>
+      </c>
+      <c r="H125" s="2">
+        <v>85</v>
+      </c>
+      <c r="I125" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>97607</v>
+      </c>
+      <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" t="s">
+        <v>264</v>
+      </c>
+      <c r="D126" s="2">
+        <v>20</v>
+      </c>
+      <c r="E126" s="2">
+        <v>74</v>
+      </c>
+      <c r="F126" s="2">
+        <v>43</v>
+      </c>
+      <c r="G126" s="2">
+        <v>95</v>
+      </c>
+      <c r="H126" s="2">
+        <v>51</v>
+      </c>
+      <c r="I126" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>90168</v>
+      </c>
+      <c r="B127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127" s="2">
+        <v>24</v>
+      </c>
+      <c r="E127" s="2">
+        <v>91</v>
+      </c>
+      <c r="F127" s="2">
+        <v>35</v>
+      </c>
+      <c r="G127" s="2">
+        <v>90</v>
+      </c>
+      <c r="H127" s="2">
+        <v>31</v>
+      </c>
+      <c r="I127" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>91568</v>
+      </c>
+      <c r="B128" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" t="s">
+        <v>268</v>
+      </c>
+      <c r="D128" s="2">
+        <v>93</v>
+      </c>
+      <c r="E128" s="2">
+        <v>97</v>
+      </c>
+      <c r="F128" s="2">
+        <v>84</v>
+      </c>
+      <c r="G128" s="2">
+        <v>90</v>
+      </c>
+      <c r="H128" s="2">
+        <v>61</v>
+      </c>
+      <c r="I128" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>75106</v>
+      </c>
+      <c r="B129" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="2">
+        <v>36</v>
+      </c>
+      <c r="E129" s="2">
+        <v>30</v>
+      </c>
+      <c r="F129" s="2">
+        <v>40</v>
+      </c>
+      <c r="G129" s="2">
+        <v>25</v>
+      </c>
+      <c r="H129" s="2">
+        <v>31</v>
+      </c>
+      <c r="I129" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>59125</v>
+      </c>
+      <c r="B130" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" t="s">
+        <v>272</v>
+      </c>
+      <c r="D130" s="2">
+        <v>80</v>
+      </c>
+      <c r="E130" s="2">
+        <v>38</v>
+      </c>
+      <c r="F130" s="2">
+        <v>73</v>
+      </c>
+      <c r="G130" s="2">
+        <v>81</v>
+      </c>
+      <c r="H130" s="2">
+        <v>35</v>
+      </c>
+      <c r="I130" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>48499</v>
+      </c>
+      <c r="B131" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" s="2">
+        <v>62</v>
+      </c>
+      <c r="E131" s="2">
+        <v>42</v>
+      </c>
+      <c r="F131" s="2">
+        <v>88</v>
+      </c>
+      <c r="G131" s="2">
+        <v>80</v>
+      </c>
+      <c r="H131" s="2">
+        <v>83</v>
+      </c>
+      <c r="I131" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>12038</v>
+      </c>
+      <c r="B132" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" s="2">
+        <v>99</v>
+      </c>
+      <c r="E132" s="2">
+        <v>64</v>
+      </c>
+      <c r="F132" s="2">
+        <v>21</v>
+      </c>
+      <c r="G132" s="2">
+        <v>44</v>
+      </c>
+      <c r="H132" s="2">
+        <v>64</v>
+      </c>
+      <c r="I132" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>61836</v>
+      </c>
+      <c r="B133" t="s">
+        <v>277</v>
+      </c>
+      <c r="C133" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" s="2">
+        <v>75</v>
+      </c>
+      <c r="E133" s="2">
+        <v>70</v>
+      </c>
+      <c r="F133" s="2">
+        <v>22</v>
+      </c>
+      <c r="G133" s="2">
+        <v>29</v>
+      </c>
+      <c r="H133" s="2">
+        <v>84</v>
+      </c>
+      <c r="I133" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>17122</v>
+      </c>
+      <c r="B134" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" s="2">
+        <v>20</v>
+      </c>
+      <c r="E134" s="2">
+        <v>74</v>
+      </c>
+      <c r="F134" s="2">
+        <v>95</v>
+      </c>
+      <c r="G134" s="2">
+        <v>32</v>
+      </c>
+      <c r="H134" s="2">
+        <v>26</v>
+      </c>
+      <c r="I134" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>68595</v>
+      </c>
+      <c r="B135" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" s="2">
+        <v>79</v>
+      </c>
+      <c r="E135" s="2">
+        <v>72</v>
+      </c>
+      <c r="F135" s="2">
+        <v>47</v>
+      </c>
+      <c r="G135" s="2">
+        <v>43</v>
+      </c>
+      <c r="H135" s="2">
+        <v>42</v>
+      </c>
+      <c r="I135" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>83731</v>
+      </c>
+      <c r="B136" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" s="2">
+        <v>47</v>
+      </c>
+      <c r="E136" s="2">
+        <v>37</v>
+      </c>
+      <c r="F136" s="2">
+        <v>28</v>
+      </c>
+      <c r="G136" s="2">
+        <v>78</v>
+      </c>
+      <c r="H136" s="2">
+        <v>41</v>
+      </c>
+      <c r="I136" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>55333</v>
+      </c>
+      <c r="B137" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" s="2">
+        <v>98</v>
+      </c>
+      <c r="E137" s="2">
+        <v>71</v>
+      </c>
+      <c r="F137" s="2">
+        <v>65</v>
+      </c>
+      <c r="G137" s="2">
+        <v>60</v>
+      </c>
+      <c r="H137" s="2">
+        <v>64</v>
+      </c>
+      <c r="I137" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>68127</v>
+      </c>
+      <c r="B138" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" t="s">
+        <v>288</v>
+      </c>
+      <c r="D138" s="2">
+        <v>27</v>
+      </c>
+      <c r="E138" s="2">
+        <v>61</v>
+      </c>
+      <c r="F138" s="2">
+        <v>80</v>
+      </c>
+      <c r="G138" s="2">
+        <v>31</v>
+      </c>
+      <c r="H138" s="2">
+        <v>44</v>
+      </c>
+      <c r="I138" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>22933</v>
+      </c>
+      <c r="B139" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" t="s">
+        <v>290</v>
+      </c>
+      <c r="D139" s="2">
+        <v>40</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45</v>
+      </c>
+      <c r="F139" s="2">
+        <v>72</v>
+      </c>
+      <c r="G139" s="2">
+        <v>98</v>
+      </c>
+      <c r="H139" s="2">
+        <v>68</v>
+      </c>
+      <c r="I139" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>68686</v>
+      </c>
+      <c r="B140" t="s">
+        <v>293</v>
+      </c>
+      <c r="C140" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" s="2">
+        <v>77</v>
+      </c>
+      <c r="E140" s="2">
+        <v>30</v>
+      </c>
+      <c r="F140" s="2">
+        <v>90</v>
+      </c>
+      <c r="G140" s="2">
+        <v>43</v>
+      </c>
+      <c r="H140" s="2">
+        <v>58</v>
+      </c>
+      <c r="I140" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>20003</v>
+      </c>
+      <c r="B141" t="s">
+        <v>295</v>
+      </c>
+      <c r="C141" t="s">
+        <v>296</v>
+      </c>
+      <c r="D141" s="2">
+        <v>59</v>
+      </c>
+      <c r="E141" s="2">
+        <v>40</v>
+      </c>
+      <c r="F141" s="2">
+        <v>72</v>
+      </c>
+      <c r="G141" s="2">
+        <v>80</v>
+      </c>
+      <c r="H141" s="2">
+        <v>24</v>
+      </c>
+      <c r="I141" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>11132</v>
+      </c>
+      <c r="B142" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" t="s">
+        <v>298</v>
+      </c>
+      <c r="D142" s="2">
+        <v>90</v>
+      </c>
+      <c r="E142" s="2">
+        <v>51</v>
+      </c>
+      <c r="F142" s="2">
+        <v>36</v>
+      </c>
+      <c r="G142" s="2">
+        <v>23</v>
+      </c>
+      <c r="H142" s="2">
+        <v>71</v>
+      </c>
+      <c r="I142" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>64663</v>
+      </c>
+      <c r="B143" t="s">
+        <v>299</v>
+      </c>
+      <c r="C143" t="s">
+        <v>300</v>
+      </c>
+      <c r="D143" s="2">
+        <v>53</v>
+      </c>
+      <c r="E143" s="2">
+        <v>51</v>
+      </c>
+      <c r="F143" s="2">
+        <v>47</v>
+      </c>
+      <c r="G143" s="2">
+        <v>57</v>
+      </c>
+      <c r="H143" s="2">
+        <v>80</v>
+      </c>
+      <c r="I143" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>53346</v>
+      </c>
+      <c r="B144" t="s">
+        <v>301</v>
+      </c>
+      <c r="C144" t="s">
+        <v>302</v>
+      </c>
+      <c r="D144" s="2">
+        <v>96</v>
+      </c>
+      <c r="E144" s="2">
+        <v>82</v>
+      </c>
+      <c r="F144" s="2">
+        <v>75</v>
+      </c>
+      <c r="G144" s="2">
+        <v>42</v>
+      </c>
+      <c r="H144" s="2">
+        <v>92</v>
+      </c>
+      <c r="I144" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>86880</v>
+      </c>
+      <c r="B145" t="s">
+        <v>303</v>
+      </c>
+      <c r="C145" t="s">
+        <v>304</v>
+      </c>
+      <c r="D145" s="2">
+        <v>55</v>
+      </c>
+      <c r="E145" s="2">
+        <v>63</v>
+      </c>
+      <c r="F145" s="2">
+        <v>95</v>
+      </c>
+      <c r="G145" s="2">
+        <v>35</v>
+      </c>
+      <c r="H145" s="2">
+        <v>100</v>
+      </c>
+      <c r="I145" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>17605</v>
+      </c>
+      <c r="B146" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="2">
+        <v>94</v>
+      </c>
+      <c r="E146" s="2">
+        <v>24</v>
+      </c>
+      <c r="F146" s="2">
+        <v>52</v>
+      </c>
+      <c r="G146" s="2">
+        <v>75</v>
+      </c>
+      <c r="H146" s="2">
+        <v>30</v>
+      </c>
+      <c r="I146" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>52128</v>
+      </c>
+      <c r="B147" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" t="s">
+        <v>308</v>
+      </c>
+      <c r="D147" s="2">
+        <v>70</v>
+      </c>
+      <c r="E147" s="2">
+        <v>47</v>
+      </c>
+      <c r="F147" s="2">
+        <v>31</v>
+      </c>
+      <c r="G147" s="2">
+        <v>49</v>
+      </c>
+      <c r="H147" s="2">
+        <v>86</v>
+      </c>
+      <c r="I147" s="2">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E1" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="4" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>19359</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="10" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="E13">
+        <v>25774</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="16" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>25774</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>52128</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>55333</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>70260</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>12038</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="32" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>52128</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>55333</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>70260</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>12038</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>68595</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>68686</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="E41:H41"/>
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E22:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/marksheet.xlsx
+++ b/marksheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="317">
   <si>
     <t>student_id</t>
   </si>
@@ -969,6 +969,9 @@
   </si>
   <si>
     <t>Some names are missing in second lit: create a column in database and show it is available or not</t>
+  </si>
+  <si>
+    <t>Highlight the missing record in database</t>
   </si>
 </sst>
 </file>
@@ -1118,19 +1121,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10025,10 +10028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:M41"/>
+  <dimension ref="D1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10039,34 +10042,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="4" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E7">
@@ -10078,24 +10081,24 @@
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10110,15 +10113,15 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
@@ -10158,15 +10161,15 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
@@ -10178,10 +10181,10 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="4"/>
@@ -10214,18 +10217,18 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -10287,15 +10290,27 @@
       <c r="D41">
         <v>5</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E43:H43"/>
     <mergeCell ref="E30:K30"/>
     <mergeCell ref="E41:H41"/>
     <mergeCell ref="E4:K4"/>
